--- a/第二反復/計画/反復計画書_LV50.xlsx
+++ b/第二反復/計画/反復計画書_LV50.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA587D-C953-4FEE-B402-761C5303B65C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF9AEE-2F3F-4622-AF59-1CD2B687A32D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,19 +423,7 @@
     <t>コンピューターと対戦できる</t>
   </si>
   <si>
-    <t>2020/6/5(午後)</t>
-  </si>
-  <si>
-    <t>2020/6/10(午後)</t>
-  </si>
-  <si>
     <t>2020/6/5(午前)</t>
-  </si>
-  <si>
-    <t>2020/6/10(午前)</t>
-  </si>
-  <si>
-    <t>2020/6/15(午前)</t>
   </si>
   <si>
     <t>3.5日間</t>
@@ -463,6 +451,28 @@
   <si>
     <t>三目並べゲームで結果をファイル出力する機能を作る
 対戦結果と履歴が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/10(午前)</t>
+    <rPh sb="10" eb="12">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/12(午前)</t>
+    <rPh sb="10" eb="12">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/12(午後)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/15(午前)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,6 +976,15 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -974,15 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,7 +1348,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1349,7 +1359,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1368,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1377,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1535,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1548,7 +1558,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1559,7 +1569,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1578,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1587,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1607,10 +1617,10 @@
         <v>43984</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1619,13 +1629,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1634,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1655,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.15">
@@ -1664,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>20</v>
@@ -1689,11 +1699,11 @@
       <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="40">
         <v>43984</v>
       </c>
-      <c r="D12" s="43">
-        <v>43991</v>
+      <c r="D12" s="40">
+        <v>43992</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1713,8 +1723,8 @@
       <c r="B14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>34</v>
+      <c r="C14" s="41" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
@@ -1724,8 +1734,8 @@
       <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>35</v>
+      <c r="C15" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
@@ -1752,12 +1762,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,15 +1952,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1977,10 +1988,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/第二反復/計画/反復計画書_LV50.xlsx
+++ b/第二反復/計画/反復計画書_LV50.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF9AEE-2F3F-4622-AF59-1CD2B687A32D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAF4CF-3551-48EF-8C23-7702CECEA4CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -473,6 +473,26 @@
   </si>
   <si>
     <t>2020/6/15(午前)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(更新)
+要求仕様書(更新)
+システム分析書(更新)
+設計仕様書(更新)
+テスト計画書(更新)
+テスト済のソースコード(更新)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日間</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アイダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1545,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1715,7 +1735,9 @@
       <c r="C13" s="32">
         <v>43991</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="32">
+        <v>43993</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1726,7 +1748,9 @@
       <c r="C14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
@@ -1737,7 +1761,9 @@
       <c r="C15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="42" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1768,6 +1794,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1951,15 +1986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
@@ -1970,6 +1996,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1985,12 +2019,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>